--- a/Assets/Configs/RawTable/FeatureOpen.xlsx
+++ b/Assets/Configs/RawTable/FeatureOpen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4696A29A-BA29-436A-8210-DEF92933D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC7B7C-22D9-4B96-A942-A21756209C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务唯一id
@@ -62,6 +63,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务名称</t>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -95,6 +97,30 @@
   </si>
   <si>
     <t>成就</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按建造建筑可以移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造或修改模式下可以旋转建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看目前拥有的物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以拆除不用的建筑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,11 +140,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,11 +206,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FeatureID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{799CE5D7-CE51-44F1-870D-9E826B86BF37}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -446,56 +475,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/FeatureOpen.xlsx
+++ b/Assets/Configs/RawTable/FeatureOpen.xlsx
@@ -1,51 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC7B7C-22D9-4B96-A942-A21756209C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureOpen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务唯一id
@@ -56,14 +36,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务名称</t>
@@ -75,99 +54,418 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>FeatureID</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>FeatureID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Description</t>
   </si>
   <si>
     <t>移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按建造建筑可以移动</t>
   </si>
   <si>
     <t>旋转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造或修改模式下可以旋转建筑</t>
   </si>
   <si>
     <t>仓库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看目前拥有的物品</t>
   </si>
   <si>
     <t>成就</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长按建造建筑可以移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造或修改模式下可以旋转建筑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以查看目前拥有的物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>拆除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可以拆除不用的建筑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,9 +473,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -185,33 +725,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FeatureID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{799CE5D7-CE51-44F1-870D-9E826B86BF37}" name="Description"/>
+    <tableColumn id="1" name="FeatureID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,81 +1053,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -554,12 +1138,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/FeatureOpen.xlsx
+++ b/Assets/Configs/RawTable/FeatureOpen.xlsx
@@ -1,51 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC38E1A-D687-49DC-B6F1-5C16A1CE746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="12371" windowHeight="6287"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureOpen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务唯一id
@@ -56,14 +36,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务名称</t>
@@ -75,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>FeatureID</t>
   </si>
@@ -86,10 +65,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>移动</t>
-  </si>
-  <si>
-    <t>长按建造建筑可以移动</t>
+    <t>修改建筑</t>
+  </si>
+  <si>
+    <t>可以移动或拆除建筑</t>
   </si>
   <si>
     <t>旋转</t>
@@ -107,48 +86,59 @@
     <t>成就</t>
   </si>
   <si>
-    <t>拆除</t>
-  </si>
-  <si>
-    <t>可以拆除不用的建筑</t>
+    <t>可以查看目前获得的成就</t>
+  </si>
+  <si>
+    <t>拆除（已废弃）</t>
+  </si>
+  <si>
+    <t>可以拆除不用的建筑（已废弃）</t>
   </si>
   <si>
     <t>升级</t>
   </si>
   <si>
+    <t>可以升级建筑</t>
+  </si>
+  <si>
     <t>官府</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查看当前城市信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以查看目前获得的成就</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以升级建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>可以购买物品</t>
+  </si>
+  <si>
+    <t>出售</t>
+  </si>
+  <si>
+    <t>可以出售物品</t>
   </si>
   <si>
     <t>第一章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第二章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第三章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,34 +150,355 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,9 +506,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -209,29 +762,73 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FeatureID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
+    <tableColumn id="1" name="FeatureID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -489,26 +1086,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -530,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -541,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -552,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -560,81 +1157,103 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>102</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>103</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/FeatureOpen.xlsx
+++ b/Assets/Configs/RawTable/FeatureOpen.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A840F56-74FA-4A35-86F8-615291B01829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D8CA5-2805-4B80-9FA0-C56B6E01B0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7008" yWindow="2808" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureOpen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>FeatureID</t>
   </si>
@@ -139,6 +152,14 @@
   </si>
   <si>
     <t>苏轼疏浚六井，使得西湖甘水，殆遍一城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏轼在杭营建六和塔、三潭映月等建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级官府，重温苏轼营建之路</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +517,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -624,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
